--- a/accuracy1.xlsx
+++ b/accuracy1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\ssgan_tf2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA4480A-6F35-4BC6-8651-739401C252A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFEC5CE-EB49-4D64-983F-CC63D386C846}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="model_1" sheetId="1" r:id="rId1"/>
@@ -21,16 +21,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
   <si>
     <t>lr=0.0002</t>
+  </si>
+  <si>
+    <t>lr=0.0001</t>
+  </si>
+  <si>
+    <t>lr=0.0005</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -40,6 +46,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -66,8 +81,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -348,522 +369,1431 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A101"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="2" max="2" width="19.875" customWidth="1"/>
-    <col min="3" max="3" width="15.75" customWidth="1"/>
+    <col min="2" max="3" width="19.875" customWidth="1"/>
+    <col min="4" max="4" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0.33332696557044977</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <v>0.33333331346511841</v>
+      </c>
+      <c r="C2">
+        <v>0.33916029334068298</v>
+      </c>
+      <c r="D2">
+        <v>0.33333331346511841</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.34594151377677917</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>0.33333331346511841</v>
+      </c>
+      <c r="C3">
+        <v>0.46113231778144842</v>
+      </c>
+      <c r="D3">
+        <v>0.3408873975276947</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0.33307251334190369</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>0.3653276264667511</v>
+      </c>
+      <c r="C4">
+        <v>0.38264313340187073</v>
+      </c>
+      <c r="D4">
+        <v>0.33330151438713068</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0.33333331346511841</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>0.33333331346511841</v>
+      </c>
+      <c r="C5">
+        <v>0.37689566612243652</v>
+      </c>
+      <c r="D5">
+        <v>0.35546436905860901</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0.33332380652427668</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>0.33333331346511841</v>
+      </c>
+      <c r="C6">
+        <v>0.45697203278541559</v>
+      </c>
+      <c r="D6">
+        <v>0.33335241675376892</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0.43365776538848883</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>0.33333331346511841</v>
+      </c>
+      <c r="C7">
+        <v>0.39232826232910162</v>
+      </c>
+      <c r="D7">
+        <v>0.33407440781593323</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0.38342556357383728</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>0.45957061648368841</v>
+      </c>
+      <c r="C8">
+        <v>0.35355278849601751</v>
+      </c>
+      <c r="D8">
+        <v>0.44820293784141541</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0.3691539466381073</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>0.37028947472572332</v>
+      </c>
+      <c r="C9">
+        <v>0.70794528722763062</v>
+      </c>
+      <c r="D9">
+        <v>0.44044530391693121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0.67415720224380493</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>0.33339697122573853</v>
+      </c>
+      <c r="C10">
+        <v>0.82286572456359863</v>
+      </c>
+      <c r="D10">
+        <v>0.46075379848480219</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0.70503181219100952</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>0.33333331346511841</v>
+      </c>
+      <c r="C11">
+        <v>0.88739818334579468</v>
+      </c>
+      <c r="D11">
+        <v>0.59659987688064575</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0.44335877895355219</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>0.45543572306633001</v>
+      </c>
+      <c r="C12">
+        <v>0.86256682872772217</v>
+      </c>
+      <c r="D12">
+        <v>0.77774173021316528</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0.65388995409011841</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>0.5090489387512207</v>
+      </c>
+      <c r="C13">
+        <v>0.74839061498641968</v>
+      </c>
+      <c r="D13">
+        <v>0.71074110269546509</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0.77538490295410156</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>0.4221532940864563</v>
+      </c>
+      <c r="C14">
+        <v>0.82760494947433472</v>
+      </c>
+      <c r="D14">
+        <v>0.75611960887908936</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0.85186386108398438</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>0.41590967774391169</v>
+      </c>
+      <c r="C15">
+        <v>0.83670169115066528</v>
+      </c>
+      <c r="D15">
+        <v>0.86033719778060913</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>0.80271631479263306</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>0.46456104516983032</v>
+      </c>
+      <c r="C16">
+        <v>0.72908711433410645</v>
+      </c>
+      <c r="D16">
+        <v>0.83361959457397461</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0.69115453958511353</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>0.57656174898147583</v>
+      </c>
+      <c r="C17">
+        <v>0.69196242094039917</v>
+      </c>
+      <c r="D17">
+        <v>0.80455785989761353</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>0.55687659978866577</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>0.50717556476593018</v>
+      </c>
+      <c r="C18">
+        <v>0.66087144613265991</v>
+      </c>
+      <c r="D18">
+        <v>0.82630085945129395</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>0.51878184080123901</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>0.6987149715423584</v>
+      </c>
+      <c r="C19">
+        <v>0.68653303384780884</v>
+      </c>
+      <c r="D19">
+        <v>0.89207065105438232</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>0.57204198837280273</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>0.8167111873626709</v>
+      </c>
+      <c r="C20">
+        <v>0.81452924013137817</v>
+      </c>
+      <c r="D20">
+        <v>0.8935081958770752</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>0.50437021255493164</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>0.8149268627166748</v>
+      </c>
+      <c r="C21">
+        <v>0.89886444807052612</v>
+      </c>
+      <c r="D21">
+        <v>0.87403953075408936</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>0.46932885050773621</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>0.86646944284439087</v>
+      </c>
+      <c r="C22">
+        <v>0.80533081293106079</v>
+      </c>
+      <c r="D22">
+        <v>0.89330470561981201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>0.48995226621627808</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>0.84310436248779297</v>
+      </c>
+      <c r="C23">
+        <v>0.9113994836807251</v>
+      </c>
+      <c r="D23">
+        <v>0.89439564943313599</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>0.49745550751686102</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>0.80292624235153198</v>
+      </c>
+      <c r="C24">
+        <v>0.91058838367462158</v>
+      </c>
+      <c r="D24">
+        <v>0.89702296257019043</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>0.67901718616485596</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>0.79029905796051025</v>
+      </c>
+      <c r="C25">
+        <v>0.91218829154968262</v>
+      </c>
+      <c r="D25">
+        <v>0.90656810998916626</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>0.80016857385635376</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>0.79991096258163452</v>
+      </c>
+      <c r="C26">
+        <v>0.92895358800888062</v>
+      </c>
+      <c r="D26">
+        <v>0.9085114598274231</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>0.89234739542007446</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>0.80497461557388306</v>
+      </c>
+      <c r="C27">
+        <v>0.90157443284988403</v>
+      </c>
+      <c r="D27">
+        <v>0.91453880071640015</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>0.89983463287353516</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>0.7920992374420166</v>
+      </c>
+      <c r="C28">
+        <v>0.88299942016601563</v>
+      </c>
+      <c r="D28">
+        <v>0.90017175674438477</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>0.91593194007873535</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>0.76507312059402466</v>
+      </c>
+      <c r="C29">
+        <v>0.91078245639801025</v>
+      </c>
+      <c r="D29">
+        <v>0.90089690685272217</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>0.92309480905532837</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>0.75476455688476563</v>
+      </c>
+      <c r="C30">
+        <v>0.90386772155761719</v>
+      </c>
+      <c r="D30">
+        <v>0.90061390399932861</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>0.92968189716339111</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>0.74254453182220459</v>
+      </c>
+      <c r="C31">
+        <v>0.89638358354568481</v>
+      </c>
+      <c r="D31">
+        <v>0.89221376180648804</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>0.90903627872467041</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>0.76310116052627563</v>
+      </c>
+      <c r="C32">
+        <v>0.91237914562225342</v>
+      </c>
+      <c r="D32">
+        <v>0.8751494288444519</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>0.87613868713378906</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>0.80347329378128052</v>
+      </c>
+      <c r="C33">
+        <v>0.88477736711502075</v>
+      </c>
+      <c r="D33">
+        <v>0.89678436517715454</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>0.90832060575485229</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>0.77387720346450806</v>
+      </c>
+      <c r="C34">
+        <v>0.93073475360870361</v>
+      </c>
+      <c r="D34">
+        <v>0.89826333522796631</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>0.93597006797790527</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>0.80581104755401611</v>
+      </c>
+      <c r="C35">
+        <v>0.91751593351364136</v>
+      </c>
+      <c r="D35">
+        <v>0.89729005098342896</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>0.93111318349838257</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <v>0.77933204174041748</v>
+      </c>
+      <c r="C36">
+        <v>0.93013042211532593</v>
+      </c>
+      <c r="D36">
+        <v>0.91177159547805786</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>0.9349936842918396</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>0.74709290266036987</v>
+      </c>
+      <c r="C37">
+        <v>0.92952924966812134</v>
+      </c>
+      <c r="D37">
+        <v>0.88688927888870239</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>0.92991411685943604</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <v>0.73932886123657227</v>
+      </c>
+      <c r="C38">
+        <v>0.93500000238418579</v>
+      </c>
+      <c r="D38">
+        <v>0.9015839695930481</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>0.93690204620361328</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B39">
+        <v>0.80324745178222656</v>
+      </c>
+      <c r="C39">
+        <v>0.91741091012954712</v>
+      </c>
+      <c r="D39">
+        <v>0.90206104516983032</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>0.92583650350570679</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <v>0.91163796186447144</v>
+      </c>
+      <c r="C40">
+        <v>0.9383397102355957</v>
+      </c>
+      <c r="D40">
+        <v>0.8738676905632019</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>0.92150759696960449</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <v>0.91713416576385498</v>
+      </c>
+      <c r="C41">
+        <v>0.92249369621276855</v>
+      </c>
+      <c r="D41">
+        <v>0.89218825101852417</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>0.92331737279891968</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B42">
+        <v>0.89597326517105103</v>
+      </c>
+      <c r="C42">
+        <v>0.93045169115066528</v>
+      </c>
+      <c r="D42">
+        <v>0.91556298732757568</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>0.91630405187606812</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B43">
+        <v>0.91950380802154541</v>
+      </c>
+      <c r="C43">
+        <v>0.95809799432754517</v>
+      </c>
+      <c r="D43">
+        <v>0.90122449398040771</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>0.91919529438018799</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B44">
+        <v>0.91101771593093872</v>
+      </c>
+      <c r="C44">
+        <v>0.94764000177383423</v>
+      </c>
+      <c r="D44">
+        <v>0.91810435056686401</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>0.93423658609390259</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B45">
+        <v>0.90333336591720581</v>
+      </c>
+      <c r="C45">
+        <v>0.94673985242843628</v>
+      </c>
+      <c r="D45">
+        <v>0.89480918645858765</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>0.93543577194213867</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B46">
+        <v>0.89206749200820923</v>
+      </c>
+      <c r="C46">
+        <v>0.91937977075576782</v>
+      </c>
+      <c r="D46">
+        <v>0.89892494678497314</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>0.92457377910614014</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B47">
+        <v>0.90657442808151245</v>
+      </c>
+      <c r="C47">
+        <v>0.93492358922958374</v>
+      </c>
+      <c r="D47">
+        <v>0.89804065227508545</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>0.93956422805786133</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B48">
+        <v>0.89875316619873047</v>
+      </c>
+      <c r="C48">
+        <v>0.926078200340271</v>
+      </c>
+      <c r="D48">
+        <v>0.90907764434814453</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>0.93937027454376221</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B49">
+        <v>0.84097325801849365</v>
+      </c>
+      <c r="C49">
+        <v>0.95743322372436523</v>
+      </c>
+      <c r="D49">
+        <v>0.90199428796768188</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>0.92958015203475952</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B50">
+        <v>0.82141220569610596</v>
+      </c>
+      <c r="C50">
+        <v>0.90991407632827759</v>
+      </c>
+      <c r="D50">
+        <v>0.87116098403930664</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>0.92928123474121094</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B51">
+        <v>0.79061704874038696</v>
+      </c>
+      <c r="C51">
+        <v>0.94453883171081543</v>
+      </c>
+      <c r="D51">
+        <v>0.91475820541381836</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>0.93631678819656372</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B52">
+        <v>0.77907127141952515</v>
+      </c>
+      <c r="C52">
+        <v>0.96010810136795044</v>
+      </c>
+      <c r="D52">
+        <v>0.89868313074111938</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>0.93968832492828369</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B53">
+        <v>0.78471052646636963</v>
+      </c>
+      <c r="C53">
+        <v>0.96360999345779419</v>
+      </c>
+      <c r="D53">
+        <v>0.88654905557632446</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>0.93603372573852539</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B54">
+        <v>0.67364501953125</v>
+      </c>
+      <c r="C54">
+        <v>0.95065516233444214</v>
+      </c>
+      <c r="D54">
+        <v>0.89994591474533081</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>0.90634536743164063</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B55">
+        <v>0.60508900880813599</v>
+      </c>
+      <c r="C55">
+        <v>0.93941152095794678</v>
+      </c>
+      <c r="D55">
+        <v>0.90592873096466064</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>0.9228021502494812</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B56">
+        <v>0.6817176342010498</v>
+      </c>
+      <c r="C56">
+        <v>0.95584279298782349</v>
+      </c>
+      <c r="D56">
+        <v>0.89671754837036133</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>0.94055664539337158</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B57">
+        <v>0.75012403726577759</v>
+      </c>
+      <c r="C57">
+        <v>0.96756678819656372</v>
+      </c>
+      <c r="D57">
+        <v>0.9092557430267334</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>0.92742359638214111</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B58">
+        <v>0.78291666507720947</v>
+      </c>
+      <c r="C58">
+        <v>0.958260178565979</v>
+      </c>
+      <c r="D58">
+        <v>0.9086800217628479</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>0.94748407602310181</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B59">
+        <v>0.84382951259613037</v>
+      </c>
+      <c r="C59">
+        <v>0.9391857385635376</v>
+      </c>
+      <c r="D59">
+        <v>0.8886641263961792</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>0.94624996185302734</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B60">
+        <v>0.91176843643188477</v>
+      </c>
+      <c r="C60">
+        <v>0.96397900581359863</v>
+      </c>
+      <c r="D60">
+        <v>0.91917300224304199</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>0.94403302669525146</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B61">
+        <v>0.92239183187484741</v>
+      </c>
+      <c r="C61">
+        <v>0.96944653987884521</v>
+      </c>
+      <c r="D61">
+        <v>0.91926842927932739</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>0.90795165300369263</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B62">
+        <v>0.91637402772903442</v>
+      </c>
+      <c r="C62">
+        <v>0.93847650289535522</v>
+      </c>
+      <c r="D62">
+        <v>0.90956747531890869</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>0.92687976360321045</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B63">
+        <v>0.92252540588378906</v>
+      </c>
+      <c r="C63">
+        <v>0.9453434944152832</v>
+      </c>
+      <c r="D63">
+        <v>0.9095420241355896</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>0.95367687940597534</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B64">
+        <v>0.93241733312606812</v>
+      </c>
+      <c r="C64">
+        <v>0.96671748161315918</v>
+      </c>
+      <c r="D64">
+        <v>0.9053117036819458</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>0.93770033121109009</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B65">
+        <v>0.93067115545272827</v>
+      </c>
+      <c r="C65">
+        <v>0.9652894139289856</v>
+      </c>
+      <c r="D65">
+        <v>0.91163486242294312</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>0.92904901504516602</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B66">
+        <v>0.92096686363220215</v>
+      </c>
+      <c r="C66">
+        <v>0.95920807123184204</v>
+      </c>
+      <c r="D66">
+        <v>0.90788161754608154</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>0.94558525085449219</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B67">
+        <v>0.89687657356262207</v>
+      </c>
+      <c r="C67">
+        <v>0.93956738710403442</v>
+      </c>
+      <c r="D67">
+        <v>0.93259227275848389</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>0.94656801223754883</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B68">
+        <v>0.89643454551696777</v>
+      </c>
+      <c r="C68">
+        <v>0.93408715724945068</v>
+      </c>
+      <c r="D68">
+        <v>0.92487919330596924</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>0.91508907079696655</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B69">
+        <v>0.89050257205963135</v>
+      </c>
+      <c r="C69">
+        <v>0.95791661739349365</v>
+      </c>
+      <c r="D69">
+        <v>0.79139626026153564</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>0.92070609331130981</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B70">
+        <v>0.92883586883544922</v>
+      </c>
+      <c r="C70">
+        <v>0.96461194753646851</v>
+      </c>
+      <c r="D70">
+        <v>0.87852102518081665</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>0.9382665753364563</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B71">
+        <v>0.91357827186584473</v>
+      </c>
+      <c r="C71">
+        <v>0.97038805484771729</v>
+      </c>
+      <c r="D71">
+        <v>0.91944652795791626</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>0.90273213386535645</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B72">
+        <v>0.84135818481445313</v>
+      </c>
+      <c r="C72">
+        <v>0.95552158355712891</v>
+      </c>
+      <c r="D72">
+        <v>0.89714062213897705</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>0.89285624027252197</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B73">
+        <v>0.83415085077285767</v>
+      </c>
+      <c r="C73">
+        <v>0.95033395290374756</v>
+      </c>
+      <c r="D73">
+        <v>0.92257630825042725</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>0.92612594366073608</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B74">
+        <v>0.90551841259002686</v>
+      </c>
+      <c r="C74">
+        <v>0.97910946607589722</v>
+      </c>
+      <c r="D74">
+        <v>0.89928436279296875</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>0.94782125949859619</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B75">
+        <v>0.93192434310913086</v>
+      </c>
+      <c r="C75">
+        <v>0.95612597465515137</v>
+      </c>
+      <c r="D75">
+        <v>0.9251367449760437</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>0.94840002059936523</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B76">
+        <v>0.90026724338531494</v>
+      </c>
+      <c r="C76">
+        <v>0.97071248292922974</v>
+      </c>
+      <c r="D76">
+        <v>0.92211514711380005</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>0.91356873512268066</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B77">
+        <v>0.83197200298309326</v>
+      </c>
+      <c r="C77">
+        <v>0.96222960948944092</v>
+      </c>
+      <c r="D77">
+        <v>0.92855924367904663</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>0.92278945446014404</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B78">
+        <v>0.85962790250778198</v>
+      </c>
+      <c r="C78">
+        <v>0.95506042242050171</v>
+      </c>
+      <c r="D78">
+        <v>0.91810745000839233</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>0.90609413385391235</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B79">
+        <v>0.88560754060745239</v>
+      </c>
+      <c r="C79">
+        <v>0.95508265495300293</v>
+      </c>
+      <c r="D79">
+        <v>0.89891225099563599</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>0.95131361484527588</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B80">
+        <v>0.90453565120697021</v>
+      </c>
+      <c r="C80">
+        <v>0.94840329885482788</v>
+      </c>
+      <c r="D80">
+        <v>0.93053430318832397</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>0.94686073064804077</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B81">
+        <v>0.9277767539024353</v>
+      </c>
+      <c r="C81">
+        <v>0.95617687702178955</v>
+      </c>
+      <c r="D81">
+        <v>0.91208970546722412</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>0.93109089136123657</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B82">
+        <v>0.90966606140136719</v>
+      </c>
+      <c r="C82">
+        <v>0.97148853540420532</v>
+      </c>
+      <c r="D82">
+        <v>0.9051240086555481</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>0.96655541658401489</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B83">
+        <v>0.92298340797424316</v>
+      </c>
+      <c r="C83">
+        <v>0.97162532806396484</v>
+      </c>
+      <c r="D83">
+        <v>0.92151397466659546</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>0.95399492979049683</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B84">
+        <v>0.94959288835525513</v>
+      </c>
+      <c r="C84">
+        <v>0.97298663854598999</v>
+      </c>
+      <c r="D84">
+        <v>0.92608779668807983</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>0.95691794157028198</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B85">
+        <v>0.92916345596313477</v>
+      </c>
+      <c r="C85">
+        <v>0.97611010074615479</v>
+      </c>
+      <c r="D85">
+        <v>0.94039756059646606</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>0.94431298971176147</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B86">
+        <v>0.93522584438323975</v>
+      </c>
+      <c r="C86">
+        <v>0.97260499000549316</v>
+      </c>
+      <c r="D86">
+        <v>0.90550893545150757</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>0.92785948514938354</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B87">
+        <v>0.93911260366439819</v>
+      </c>
+      <c r="C87">
+        <v>0.96955150365829468</v>
+      </c>
+      <c r="D87">
+        <v>0.89179384708404541</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>0.94265270233154297</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B88">
+        <v>0.90402662754058838</v>
+      </c>
+      <c r="C88">
+        <v>0.97594141960144043</v>
+      </c>
+      <c r="D88">
+        <v>0.90771627426147461</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>0.93694651126861572</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B89">
+        <v>0.93388676643371582</v>
+      </c>
+      <c r="C89">
+        <v>0.95659667253494263</v>
+      </c>
+      <c r="D89">
+        <v>0.94298982620239258</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>0.92861318588256836</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B90">
+        <v>0.92766213417053223</v>
+      </c>
+      <c r="C90">
+        <v>0.93575060367584229</v>
+      </c>
+      <c r="D90">
+        <v>0.9003530740737915</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>0.94075697660446167</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B91">
+        <v>0.9179198145866394</v>
+      </c>
+      <c r="C91">
+        <v>0.95844781398773193</v>
+      </c>
+      <c r="D91">
+        <v>0.8784669041633606</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>0.92301845550537109</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B92">
+        <v>0.92975831031799316</v>
+      </c>
+      <c r="C92">
+        <v>0.97813296318054199</v>
+      </c>
+      <c r="D92">
+        <v>0.94174933433532715</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>0.93005090951919556</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B93">
+        <v>0.94049298763275146</v>
+      </c>
+      <c r="C93">
+        <v>0.96922397613525391</v>
+      </c>
+      <c r="D93">
+        <v>0.93638992309570313</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>0.94729006290435791</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B94">
+        <v>0.92497771978378296</v>
+      </c>
+      <c r="C94">
+        <v>0.97069340944290161</v>
+      </c>
+      <c r="D94">
+        <v>0.92895358800888062</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>0.9001622200012207</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B95">
+        <v>0.90673977136611938</v>
+      </c>
+      <c r="C95">
+        <v>0.9748346209526062</v>
+      </c>
+      <c r="D95">
+        <v>0.93192428350448608</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>0.92561060190200806</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B96">
+        <v>0.93842875957489014</v>
+      </c>
+      <c r="C96">
+        <v>0.97824746370315552</v>
+      </c>
+      <c r="D96">
+        <v>0.95251590013504028</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>0.96735376119613647</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B97">
+        <v>0.94309800863265991</v>
+      </c>
+      <c r="C97">
+        <v>0.97357511520385742</v>
+      </c>
+      <c r="D97">
+        <v>0.93292933702468872</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>0.95138990879058838</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B98">
+        <v>0.92938929796218872</v>
+      </c>
+      <c r="C98">
+        <v>0.97121179103851318</v>
+      </c>
+      <c r="D98">
+        <v>0.9085114598274231</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>0.88145673274993896</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B99">
+        <v>0.93652981519699097</v>
+      </c>
+      <c r="C99">
+        <v>0.97736644744873047</v>
+      </c>
+      <c r="D99">
+        <v>0.94400769472122192</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>0.92930978536605835</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B100">
+        <v>0.92482507228851318</v>
+      </c>
+      <c r="C100">
+        <v>0.98321884870529175</v>
+      </c>
+      <c r="D100">
+        <v>0.93015915155410767</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>0.93180018663406372</v>
+      </c>
+      <c r="B101">
+        <v>0.92410308122634888</v>
+      </c>
+      <c r="C101">
+        <v>0.98236316442489624</v>
+      </c>
+      <c r="D101">
+        <v>0.85256993770599365</v>
       </c>
     </row>
   </sheetData>
@@ -875,14 +1805,523 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.5" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>0.33333331346511841</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>0.35365459322929382</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>0.33325383067131042</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>0.33336195349693298</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>0.34882950782775879</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>0.44253179430961609</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>0.35287535190582281</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>0.68663489818572998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>0.42237916588783259</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>0.36022582650184631</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>0.40288800001144409</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>0.4994719922542572</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>0.63120543956756592</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>0.83395349979400635</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>0.8653562068939209</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>0.85411900281906128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>0.86827611923217773</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>0.86491096019744873</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>0.86731553077697754</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>0.85366725921630859</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>0.88088417053222656</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>0.90514945983886719</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>0.89047080278396606</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>0.82695925235748291</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>0.8976176381111145</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>0.91626596450805664</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>0.93763995170593262</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>0.93900763988494873</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>0.93384218215942383</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>0.92701977491378784</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>0.80125635862350464</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>0.87192434072494507</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>0.870982825756073</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>0.86088424921035767</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>0.83839380741119385</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>0.84233778715133667</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>0.93781167268753052</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>0.94263046979904175</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
+        <v>0.94662529230117798</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <v>0.92968833446502686</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>0.93008273839950562</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>0.94273853302001953</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>0.95101463794708252</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>0.94268447160720825</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
+        <v>0.90508592128753662</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
+        <v>0.89532762765884399</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
+        <v>0.91827929019927979</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
+        <v>0.89881998300552368</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
+        <v>0.92194980382919312</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
+        <v>0.93255728483200073</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
+        <v>0.92777037620544434</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
+        <v>0.93607187271118164</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
+        <v>0.93893444538116455</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
+        <v>0.91014629602432251</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="2">
+        <v>0.91110050678253174</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" s="2">
+        <v>0.91795802116394043</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" s="2">
+        <v>0.90565526485443115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" s="2">
+        <v>0.91952919960021973</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" s="2">
+        <v>0.93536257743835449</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" s="2">
+        <v>0.90280848741531372</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" s="2">
+        <v>0.92094153165817261</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" s="2">
+        <v>0.91778945922851563</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" s="2">
+        <v>0.91809797286987305</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="2">
+        <v>0.89680349826812744</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" s="2">
+        <v>0.92280852794647217</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" s="2">
+        <v>0.89380085468292236</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" s="2">
+        <v>0.93703246116638184</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" s="2">
+        <v>0.92962145805358887</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" s="2">
+        <v>0.9182855486869812</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" s="2">
+        <v>0.8954738974571228</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" s="2">
+        <v>0.92504453659057617</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" s="2">
+        <v>0.93768441677093506</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" s="2">
+        <v>0.93288803100585938</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" s="2">
+        <v>0.93424928188323975</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" s="2">
+        <v>0.9394497275352478</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" s="2">
+        <v>0.93487918376922607</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" s="2">
+        <v>0.93960875272750854</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" s="2">
+        <v>0.93688929080963135</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" s="2">
+        <v>0.94212782382965088</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" s="2">
+        <v>0.93521946668624878</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" s="2">
+        <v>0.93874043226242065</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" s="2">
+        <v>0.93620544672012329</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" s="2">
+        <v>0.96170169115066528</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" s="2">
+        <v>0.95735365152359009</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" s="2">
+        <v>0.93010812997817993</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" s="2">
+        <v>0.93075388669967651</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" s="2">
+        <v>0.92098283767700195</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" s="2">
+        <v>0.93505090475082397</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" s="2">
+        <v>0.88494908809661865</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" s="2">
+        <v>0.91105592250823975</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" s="2">
+        <v>0.95749998092651367</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" s="2">
+        <v>0.94329833984375</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" s="2">
+        <v>0.89764636754989624</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" s="2">
+        <v>0.93882632255554199</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" s="2">
+        <v>0.93359094858169556</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" s="2">
+        <v>0.94330471754074097</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" s="2">
+        <v>0.95811706781387329</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" s="2">
+        <v>0.9570770263671875</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" s="2">
+        <v>0.93623405694961548</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" s="2">
+        <v>0.96449118852615356</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
